--- a/금칙어/22.7.29 기준 미서씨 금칙어(수정).xlsx
+++ b/금칙어/22.7.29 기준 미서씨 금칙어(수정).xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Databank\구매대행\미서씨\금칙어\구대찌개\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F755B1A-1C3E-490B-BDD1-1F30DFB0A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22008EEE-AF7D-4EB9-AF41-6C6DADDA6BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="22.7.29 기준 미서씨 금칙어(수정)_v1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'22.7.29 기준 미서씨 금칙어(수정)_v1.0'!$A$1:$C$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="129">
   <si>
     <t>금칙어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,6 +480,53 @@
   <si>
     <t>child</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arneu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arneu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편광렌즈</t>
+  </si>
+  <si>
+    <t>바디캠</t>
+  </si>
+  <si>
+    <t>초소형캠</t>
+  </si>
+  <si>
+    <t>몰래카메라</t>
+  </si>
+  <si>
+    <t>로리타</t>
+  </si>
+  <si>
+    <t>비비안웨스트우드</t>
+  </si>
+  <si>
+    <t>피스마이너스원</t>
+  </si>
+  <si>
+    <t>포니만두</t>
+  </si>
+  <si>
+    <t>미스터에이치</t>
   </si>
 </sst>
 </file>
@@ -968,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159:B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -1760,90 +1807,90 @@
     </row>
     <row r="98" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1851,207 +1898,207 @@
         <v>48</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="B111" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="12" t="s">
+      <c r="B114" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="12" t="s">
+      <c r="B116" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="B117" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -2059,90 +2106,201 @@
         <v>107</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="8"/>
-      <c r="B136" s="1"/>
+      <c r="A136" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="8"/>
-      <c r="B137" s="1"/>
+      <c r="A137" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="8"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="139" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="8"/>
-      <c r="B139" s="1"/>
+      <c r="A139" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="8"/>
-      <c r="B140" s="1"/>
+      <c r="A140" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="141" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="8"/>
-      <c r="B141" s="1"/>
+      <c r="A141" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="8"/>
-      <c r="B142" s="1"/>
+      <c r="A142" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="143" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="8"/>
-      <c r="B143" s="1"/>
+      <c r="A143" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="8"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="145" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="9"/>
-      <c r="B145" s="1"/>
+      <c r="A145" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="8"/>
-      <c r="B146" s="1"/>
+      <c r="A146" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="147" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A147" s="8"/>
-      <c r="B147" s="1"/>
+      <c r="A147" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="8"/>
-      <c r="B148" s="1"/>
+      <c r="A148" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="149" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="8"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="8"/>
-      <c r="B150" s="1"/>
+      <c r="A150" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="151" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="8"/>
-      <c r="B151" s="1"/>
+      <c r="A151" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="8"/>
-      <c r="B152" s="1"/>
+      <c r="A152" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="153" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="8"/>
-      <c r="B153" s="1"/>
+      <c r="A153" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="8"/>
-      <c r="B154" s="1"/>
+      <c r="A154" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="155" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B155" s="1"/>
+      <c r="A155" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B160" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C135" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
